--- a/Tools/ExcelTool/Excel/SkillConfig.xlsx
+++ b/Tools/ExcelTool/Excel/SkillConfig.xlsx
@@ -14,18 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="63">
-  <si>
-    <t>IdClass</t>
-  </si>
-  <si>
-    <t>TestTower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试防御塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="62">
   <si>
     <t>string</t>
   </si>
@@ -207,6 +196,14 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成100%攻击力的伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -326,13 +323,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -674,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM5"/>
+  <dimension ref="B1:AM6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -686,383 +680,380 @@
     <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
     <col min="3" max="4" width="16.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+    <row r="1" spans="2:39" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="K2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="AK2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI2" s="10" t="s">
+    </row>
+    <row r="3" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM3" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>10000100</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AJ2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK2" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM2" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM3" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AL4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM4" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>1001</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="5">
-        <v>5000</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
         <v>0</v>
       </c>
       <c r="H5" s="1">
@@ -1159,7 +1150,123 @@
         <v>0</v>
       </c>
       <c r="AM5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:39" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>10000101</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>61</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/ExcelTool/Excel/SkillConfig.xlsx
+++ b/Tools/ExcelTool/Excel/SkillConfig.xlsx
@@ -671,7 +671,7 @@
   <dimension ref="B1:AM6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1051,7 +1051,7 @@
         <v>57</v>
       </c>
       <c r="F5" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>57</v>
       </c>
       <c r="F6" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
